--- a/medicine/Mort/Cimetière_de_Saint-Rémi-de-Napierville/Cimetière_de_Saint-Rémi-de-Napierville.xlsx
+++ b/medicine/Mort/Cimetière_de_Saint-Rémi-de-Napierville/Cimetière_de_Saint-Rémi-de-Napierville.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Saint-R%C3%A9mi-de-Napierville</t>
+          <t>Cimetière_de_Saint-Rémi-de-Napierville</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière Saint-Rémi-de-Napierville est un petit cimetière catholique à Saint-Rémi-de-Napierville, Québec. Il est situé du côté sud de la rue Saint-André et à l'est de la rue Saint-Paul (232 rue Saint-André).
-C'est la dernière demeure du 15e premier ministre canadien Pierre Elliott Trudeau (1919-2000) – dans le mausolée familial, visible depuis la rue Saint-André[1]. Dans la nuit du 24 au 25 avril 2008, celui-ci a été vandalisé en y inscrivant « FLQ » et « traître » à la bombe de peinture[2],[3].
+C'est la dernière demeure du 15e premier ministre canadien Pierre Elliott Trudeau (1919-2000) – dans le mausolée familial, visible depuis la rue Saint-André. Dans la nuit du 24 au 25 avril 2008, celui-ci a été vandalisé en y inscrivant « FLQ » et « traître » à la bombe de peinture,.
 </t>
         </is>
       </c>
